--- a/Python model/US2016-2020.xlsx
+++ b/Python model/US2016-2020.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rickeyhuang/Desktop/COMAPproblemF/PCA/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rickeyhuang/Desktop/COMAPproblemF/Python model/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DD4CDC24-3690-164F-A63B-A79B7CC2A1B8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36BF9F08-0243-BD4F-8208-6C5486966BE1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{7D101342-874A-914A-9AD8-BB4168B0374C}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16380" xr2:uid="{7D101342-874A-914A-9AD8-BB4168B0374C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -431,13 +431,13 @@
   <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.1640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="12.1640625" bestFit="1" customWidth="1"/>
